--- a/2025/2025.07 Invoicing/ethylene_oxide_invoice_july_2025.xlsx
+++ b/2025/2025.07 Invoicing/ethylene_oxide_invoice_july_2025.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzabriskie/Desktop/repos/eto_billing/2025/2025.07 Invoicing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE70700-20FD-3F47-B38D-6DE095A7E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5ED8A0-995B-C841-BCD1-DDAD589DDB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -447,7 +434,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
